--- a/JobSearching/Job-Search-Tracking-Tool.xlsx
+++ b/JobSearching/Job-Search-Tracking-Tool.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t xml:space="preserve">Resume submissions</t>
   </si>
@@ -123,6 +123,45 @@
   </si>
   <si>
     <t xml:space="preserve">Lyft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware Engineer Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appleworldwiderecruiting@email.apple.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco Meraki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no-reply@greenhouse.io</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 650-308-7837.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linkedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems Engineer Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualcom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware Developer Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM</t>
   </si>
   <si>
     <t xml:space="preserve">Networking</t>
@@ -200,7 +239,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="M/D/YY;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -285,6 +324,18 @@
       <color rgb="FF0000FF"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -680,7 +731,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -813,8 +864,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -853,7 +916,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -861,11 +924,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,7 +1028,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1107,14 +1170,14 @@
   <dimension ref="B1:P35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="18.06"/>
@@ -1373,16 +1436,22 @@
       <c r="P9" s="25"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="G10" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="33"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
@@ -1390,12 +1459,18 @@
       <c r="P10" s="30"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="35" t="s">
+        <v>34</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="31"/>
@@ -1407,16 +1482,22 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="E12" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="33"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
@@ -1424,8 +1505,12 @@
       <c r="P12" s="30"/>
     </row>
     <row r="13" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="21"/>
@@ -1441,8 +1526,12 @@
       <c r="P13" s="25"/>
     </row>
     <row r="14" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
       <c r="F14" s="27"/>
@@ -1450,7 +1539,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="33"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
@@ -1458,8 +1547,12 @@
       <c r="P14" s="30"/>
     </row>
     <row r="15" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="21"/>
@@ -1475,8 +1568,12 @@
       <c r="P15" s="25"/>
     </row>
     <row r="16" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28"/>
       <c r="F16" s="27"/>
@@ -1484,7 +1581,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="33"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -1518,7 +1615,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="33"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -1552,7 +1649,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="33"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -1586,7 +1683,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="33"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -1620,7 +1717,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="33"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
@@ -1654,7 +1751,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
@@ -1688,7 +1785,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="33"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -1722,7 +1819,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="33"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -1756,7 +1853,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="33"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -1790,7 +1887,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="33"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
@@ -1798,21 +1895,21 @@
       <c r="P34" s="30"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="39"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="42"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1825,6 +1922,7 @@
     <hyperlink ref="G4" r:id="rId1" display="&#10;no-reply@greenhouse.io"/>
     <hyperlink ref="G5" r:id="rId2" display="no-reply@dropbox.com"/>
     <hyperlink ref="G6" r:id="rId3" display="TeslaRecruiting@tesla.com"/>
+    <hyperlink ref="G10" r:id="rId4" display="appleworldwiderecruiting@email.apple.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.509722222222222" right="0.509722222222222" top="0.7" bottom="0.7" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1856,142 +1954,142 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="43" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="11" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="11" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="11" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="11" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="11" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="11" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="11" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="11" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="11" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="11" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="41"/>
+      <c r="B1" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-    </row>
-    <row r="3" s="44" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-    </row>
-    <row r="4" s="44" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+    </row>
+    <row r="3" s="47" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+    </row>
+    <row r="4" s="47" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="48" t="s">
+      <c r="D4" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="48" t="s">
+      <c r="G4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="48" t="s">
+      <c r="K4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="48" t="s">
+      <c r="O4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="48" t="s">
+      <c r="S4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="14"/>
       <c r="E5" s="18"/>
       <c r="F5" s="13"/>
@@ -2006,15 +2104,15 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="52"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
     </row>
     <row r="6" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="21"/>
       <c r="E6" s="32"/>
       <c r="F6" s="21"/>
@@ -2029,17 +2127,17 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="56"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="59"/>
     </row>
     <row r="7" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -2052,15 +2150,15 @@
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="60"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="63"/>
     </row>
     <row r="8" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="21"/>
       <c r="E8" s="32"/>
       <c r="F8" s="21"/>
@@ -2075,17 +2173,17 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="56"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="33"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -2098,15 +2196,15 @@
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="60"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="21"/>
       <c r="E10" s="32"/>
       <c r="F10" s="21"/>
@@ -2121,17 +2219,17 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="56"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="59"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="33"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -2144,15 +2242,15 @@
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="60"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="63"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="21"/>
       <c r="E12" s="32"/>
       <c r="F12" s="21"/>
@@ -2167,17 +2265,17 @@
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="56"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="33"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -2190,15 +2288,15 @@
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="60"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="63"/>
     </row>
     <row r="14" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="21"/>
       <c r="E14" s="32"/>
       <c r="F14" s="21"/>
@@ -2213,17 +2311,17 @@
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="56"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="59"/>
     </row>
     <row r="15" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="33"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -2236,15 +2334,15 @@
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="60"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="63"/>
     </row>
     <row r="16" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="21"/>
       <c r="E16" s="32"/>
       <c r="F16" s="21"/>
@@ -2259,17 +2357,17 @@
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="56"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="33"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -2282,15 +2380,15 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="60"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="63"/>
     </row>
     <row r="18" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="21"/>
       <c r="E18" s="32"/>
       <c r="F18" s="21"/>
@@ -2305,17 +2403,17 @@
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="56"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="33"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -2328,15 +2426,15 @@
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="60"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="63"/>
     </row>
     <row r="20" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="21"/>
       <c r="E20" s="32"/>
       <c r="F20" s="21"/>
@@ -2351,17 +2449,17 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="56"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="59"/>
     </row>
     <row r="21" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -2374,15 +2472,15 @@
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="60"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="63"/>
     </row>
     <row r="22" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="21"/>
       <c r="E22" s="32"/>
       <c r="F22" s="21"/>
@@ -2397,17 +2495,17 @@
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="56"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="59"/>
     </row>
     <row r="23" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -2420,15 +2518,15 @@
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="60"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="63"/>
     </row>
     <row r="24" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="21"/>
       <c r="E24" s="32"/>
       <c r="F24" s="21"/>
@@ -2443,17 +2541,17 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="56"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="59"/>
     </row>
     <row r="25" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -2466,15 +2564,15 @@
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="63"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="21"/>
       <c r="E26" s="32"/>
       <c r="F26" s="21"/>
@@ -2489,17 +2587,17 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="56"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="59"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="33"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -2512,15 +2610,15 @@
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="60"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="63"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="21"/>
       <c r="E28" s="32"/>
       <c r="F28" s="21"/>
@@ -2535,17 +2633,17 @@
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
     </row>
     <row r="29" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="33"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -2558,15 +2656,15 @@
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="60"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="63"/>
     </row>
     <row r="30" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="21"/>
       <c r="E30" s="32"/>
       <c r="F30" s="21"/>
@@ -2581,17 +2679,17 @@
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="56"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="59"/>
     </row>
     <row r="31" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="33"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -2604,15 +2702,15 @@
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="60"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="63"/>
     </row>
     <row r="32" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="21"/>
       <c r="E32" s="32"/>
       <c r="F32" s="21"/>
@@ -2627,17 +2725,17 @@
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="56"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="59"/>
     </row>
     <row r="33" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="33"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -2650,15 +2748,15 @@
       <c r="O33" s="27"/>
       <c r="P33" s="27"/>
       <c r="Q33" s="27"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="60"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="63"/>
     </row>
     <row r="34" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="21"/>
       <c r="E34" s="32"/>
       <c r="F34" s="21"/>
@@ -2673,34 +2771,34 @@
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="56"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="59"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="66"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2744,70 +2842,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="68" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="69" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="69" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="69" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="68" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="69" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="67" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="70" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="71" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="72" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="72" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="72" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="71" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="72" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="70" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="70" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="73" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-    </row>
-    <row r="2" s="70" customFormat="true" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+    </row>
+    <row r="2" s="73" customFormat="true" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="5"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-    </row>
-    <row r="3" s="73" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="75" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" s="76" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="75" t="s">
+      <c r="E3" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="75" t="s">
+      <c r="G3" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="78" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
+    <row r="4" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="78"/>
-    </row>
-    <row r="5" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="80"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="81"/>
+    </row>
+    <row r="5" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="83"/>
       <c r="C5" s="25"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -2815,17 +2913,17 @@
       <c r="G5" s="32"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="81"/>
+    <row r="6" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84"/>
       <c r="C6" s="30"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="80"/>
+    <row r="7" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="83"/>
       <c r="C7" s="25"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -2833,17 +2931,17 @@
       <c r="G7" s="32"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="81"/>
+    <row r="8" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="84"/>
       <c r="C8" s="30"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="80"/>
+    <row r="9" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="83"/>
       <c r="C9" s="25"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -2851,17 +2949,17 @@
       <c r="G9" s="32"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="81"/>
+    <row r="10" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="84"/>
       <c r="C10" s="30"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="80"/>
+    <row r="11" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="83"/>
       <c r="C11" s="25"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -2869,17 +2967,17 @@
       <c r="G11" s="32"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="81"/>
+    <row r="12" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="84"/>
       <c r="C12" s="30"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="80"/>
+    <row r="13" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="83"/>
       <c r="C13" s="25"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -2887,17 +2985,17 @@
       <c r="G13" s="32"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="81"/>
+    <row r="14" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="84"/>
       <c r="C14" s="30"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="80"/>
+    <row r="15" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="83"/>
       <c r="C15" s="25"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -2905,17 +3003,17 @@
       <c r="G15" s="32"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="81"/>
+    <row r="16" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="84"/>
       <c r="C16" s="30"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="80"/>
+    <row r="17" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="83"/>
       <c r="C17" s="25"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -2923,17 +3021,17 @@
       <c r="G17" s="32"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="81"/>
+    <row r="18" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="84"/>
       <c r="C18" s="30"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="80"/>
+    <row r="19" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="83"/>
       <c r="C19" s="25"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -2941,17 +3039,17 @@
       <c r="G19" s="32"/>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="81"/>
+    <row r="20" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="84"/>
       <c r="C20" s="30"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="80"/>
+    <row r="21" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="83"/>
       <c r="C21" s="25"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -2959,17 +3057,17 @@
       <c r="G21" s="32"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="81"/>
+    <row r="22" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="84"/>
       <c r="C22" s="30"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="80"/>
+    <row r="23" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="83"/>
       <c r="C23" s="25"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -2977,17 +3075,17 @@
       <c r="G23" s="32"/>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="81"/>
+    <row r="24" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="84"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="30"/>
     </row>
-    <row r="25" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="80"/>
+    <row r="25" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="83"/>
       <c r="C25" s="25"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -2995,17 +3093,17 @@
       <c r="G25" s="32"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="81"/>
+    <row r="26" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="84"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="30"/>
     </row>
-    <row r="27" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="80"/>
+    <row r="27" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="83"/>
       <c r="C27" s="25"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -3013,17 +3111,17 @@
       <c r="G27" s="32"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="81"/>
+    <row r="28" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="84"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="30"/>
     </row>
-    <row r="29" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="80"/>
+    <row r="29" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="83"/>
       <c r="C29" s="25"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -3031,17 +3129,17 @@
       <c r="G29" s="32"/>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="81"/>
+    <row r="30" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="84"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="30"/>
     </row>
-    <row r="31" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="80"/>
+    <row r="31" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="83"/>
       <c r="C31" s="25"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -3049,17 +3147,17 @@
       <c r="G31" s="32"/>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="81"/>
+    <row r="32" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="84"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="30"/>
     </row>
-    <row r="33" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="80"/>
+    <row r="33" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="83"/>
       <c r="C33" s="25"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -3067,23 +3165,23 @@
       <c r="G33" s="32"/>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="81"/>
+    <row r="34" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="84"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="82"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+    <row r="35" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="85"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="42"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3110,54 +3208,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="69" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="69" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="68" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="69" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="67" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="70" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="70" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="72" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="72" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="71" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="72" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="70" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="83"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-    </row>
-    <row r="3" s="44" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="85" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+    </row>
+    <row r="3" s="47" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="85" t="s">
+      <c r="C3" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="88" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -3165,7 +3263,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -3173,15 +3271,15 @@
       <c r="F5" s="32"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -3189,15 +3287,15 @@
       <c r="F7" s="32"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="30"/>
     </row>
-    <row r="9" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3205,15 +3303,15 @@
       <c r="F9" s="32"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3221,15 +3319,15 @@
       <c r="F11" s="32"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -3237,15 +3335,15 @@
       <c r="F13" s="32"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -3253,15 +3351,15 @@
       <c r="F15" s="32"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -3269,15 +3367,15 @@
       <c r="F17" s="32"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -3285,15 +3383,15 @@
       <c r="F19" s="32"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3301,15 +3399,15 @@
       <c r="F21" s="32"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3317,15 +3415,15 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -3333,15 +3431,15 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -3349,15 +3447,15 @@
       <c r="F27" s="32"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -3365,15 +3463,15 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -3381,15 +3479,15 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -3397,21 +3495,21 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" s="76" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
+    <row r="35" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/JobSearching/Job-Search-Tracking-Tool.xlsx
+++ b/JobSearching/Job-Search-Tracking-Tool.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t xml:space="preserve">Resume submissions</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t xml:space="preserve">IBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xilinx</t>
   </si>
   <si>
     <t xml:space="preserve">Networking</t>
@@ -239,7 +242,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="M/D/YY;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -325,11 +328,6 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -731,7 +729,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -864,15 +862,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,7 +910,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,11 +918,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1028,7 +1022,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1170,7 +1164,7 @@
   <dimension ref="B1:P35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1436,7 +1430,7 @@
       <c r="P9" s="25"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1451,7 +1445,7 @@
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
@@ -1459,7 +1453,7 @@
       <c r="P10" s="30"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -1468,7 +1462,7 @@
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="21"/>
@@ -1482,14 +1476,14 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="27"/>
@@ -1497,7 +1491,7 @@
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="34"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
@@ -1539,7 +1533,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="34"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
@@ -1581,7 +1575,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="34"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
@@ -1589,8 +1583,12 @@
       <c r="P16" s="30"/>
     </row>
     <row r="17" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
       <c r="F17" s="21"/>
@@ -1615,7 +1613,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="34"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
@@ -1649,7 +1647,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="34"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
@@ -1683,7 +1681,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="34"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -1717,7 +1715,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="34"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
@@ -1751,7 +1749,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="34"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
@@ -1785,7 +1783,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="34"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -1819,7 +1817,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="34"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
@@ -1853,7 +1851,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="34"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
@@ -1887,7 +1885,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="24"/>
-      <c r="K34" s="34"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
@@ -1895,21 +1893,21 @@
       <c r="P34" s="30"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="42"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="41"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1956,7 +1954,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="43" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="42" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="19.31"/>
@@ -1978,118 +1976,118 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="44"/>
+      <c r="B1" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-    </row>
-    <row r="3" s="47" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" s="46" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-    </row>
-    <row r="4" s="47" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="50" t="s">
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+    </row>
+    <row r="4" s="46" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="51" t="s">
+      <c r="H4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="51" t="s">
+      <c r="K4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="51" t="s">
+      <c r="L4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="51" t="s">
+      <c r="O4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="51" t="s">
+      <c r="P4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="51" t="s">
+      <c r="S4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="V4" s="51" t="s">
+      <c r="T4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="14"/>
       <c r="E5" s="18"/>
       <c r="F5" s="13"/>
@@ -2104,15 +2102,15 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="21"/>
       <c r="E6" s="32"/>
       <c r="F6" s="21"/>
@@ -2127,17 +2125,17 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="59"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="58"/>
     </row>
     <row r="7" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="34"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -2150,15 +2148,15 @@
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="63"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="62"/>
     </row>
     <row r="8" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="21"/>
       <c r="E8" s="32"/>
       <c r="F8" s="21"/>
@@ -2173,17 +2171,17 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="59"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="34"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -2196,15 +2194,15 @@
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="62"/>
     </row>
     <row r="10" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="21"/>
       <c r="E10" s="32"/>
       <c r="F10" s="21"/>
@@ -2219,17 +2217,17 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="59"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="34"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -2242,15 +2240,15 @@
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="63"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="62"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="21"/>
       <c r="E12" s="32"/>
       <c r="F12" s="21"/>
@@ -2265,17 +2263,17 @@
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="59"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="58"/>
     </row>
     <row r="13" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="34"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -2288,15 +2286,15 @@
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="63"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="62"/>
     </row>
     <row r="14" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="21"/>
       <c r="E14" s="32"/>
       <c r="F14" s="21"/>
@@ -2311,17 +2309,17 @@
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="59"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58"/>
     </row>
     <row r="15" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="34"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -2334,15 +2332,15 @@
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="63"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="62"/>
     </row>
     <row r="16" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="21"/>
       <c r="E16" s="32"/>
       <c r="F16" s="21"/>
@@ -2357,17 +2355,17 @@
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="59"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="58"/>
     </row>
     <row r="17" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="34"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -2380,15 +2378,15 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="63"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="62"/>
     </row>
     <row r="18" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="21"/>
       <c r="E18" s="32"/>
       <c r="F18" s="21"/>
@@ -2403,17 +2401,17 @@
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="59"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="58"/>
     </row>
     <row r="19" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="34"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -2426,15 +2424,15 @@
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="63"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="62"/>
     </row>
     <row r="20" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="21"/>
       <c r="E20" s="32"/>
       <c r="F20" s="21"/>
@@ -2449,17 +2447,17 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="59"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="58"/>
     </row>
     <row r="21" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="34"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -2472,15 +2470,15 @@
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="63"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="62"/>
     </row>
     <row r="22" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="21"/>
       <c r="E22" s="32"/>
       <c r="F22" s="21"/>
@@ -2495,17 +2493,17 @@
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="59"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="58"/>
     </row>
     <row r="23" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="34"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -2518,15 +2516,15 @@
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="63"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="62"/>
     </row>
     <row r="24" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="21"/>
       <c r="E24" s="32"/>
       <c r="F24" s="21"/>
@@ -2541,17 +2539,17 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="59"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="58"/>
     </row>
     <row r="25" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="34"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -2564,15 +2562,15 @@
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="63"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="62"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="21"/>
       <c r="E26" s="32"/>
       <c r="F26" s="21"/>
@@ -2587,17 +2585,17 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="59"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="58"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="34"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -2610,15 +2608,15 @@
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="63"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="62"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="21"/>
       <c r="E28" s="32"/>
       <c r="F28" s="21"/>
@@ -2633,17 +2631,17 @@
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="58"/>
     </row>
     <row r="29" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="34"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -2656,15 +2654,15 @@
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="63"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="62"/>
     </row>
     <row r="30" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="21"/>
       <c r="E30" s="32"/>
       <c r="F30" s="21"/>
@@ -2679,17 +2677,17 @@
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="59"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="58"/>
     </row>
     <row r="31" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="34"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -2702,15 +2700,15 @@
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="63"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="62"/>
     </row>
     <row r="32" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="21"/>
       <c r="E32" s="32"/>
       <c r="F32" s="21"/>
@@ -2725,17 +2723,17 @@
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="59"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="58"/>
     </row>
     <row r="33" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="34"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -2748,15 +2746,15 @@
       <c r="O33" s="27"/>
       <c r="P33" s="27"/>
       <c r="Q33" s="27"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="63"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="62"/>
     </row>
     <row r="34" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="21"/>
       <c r="E34" s="32"/>
       <c r="F34" s="21"/>
@@ -2771,34 +2769,34 @@
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="59"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="58"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="69"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2842,70 +2840,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="70" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="71" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="72" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="72" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="72" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="71" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="72" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="70" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="69" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="70" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="71" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="71" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="71" width="25.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="70" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="71" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="69" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="73" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="72" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-    </row>
-    <row r="2" s="73" customFormat="true" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" s="72" customFormat="true" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="5"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-    </row>
-    <row r="3" s="76" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="77" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="3" s="75" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="78" t="s">
+      <c r="G3" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
+    <row r="4" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="81"/>
-    </row>
-    <row r="5" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82"/>
       <c r="C5" s="25"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -2913,17 +2911,17 @@
       <c r="G5" s="32"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="84"/>
+    <row r="6" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="83"/>
       <c r="C6" s="30"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="83"/>
+    <row r="7" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="82"/>
       <c r="C7" s="25"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -2931,17 +2929,17 @@
       <c r="G7" s="32"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="84"/>
+    <row r="8" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="83"/>
       <c r="C8" s="30"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="30"/>
     </row>
-    <row r="9" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="83"/>
+    <row r="9" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="82"/>
       <c r="C9" s="25"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -2949,17 +2947,17 @@
       <c r="G9" s="32"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="84"/>
+    <row r="10" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="83"/>
       <c r="C10" s="30"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="83"/>
+    <row r="11" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="82"/>
       <c r="C11" s="25"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -2967,17 +2965,17 @@
       <c r="G11" s="32"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="84"/>
+    <row r="12" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="83"/>
       <c r="C12" s="30"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="83"/>
+    <row r="13" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="82"/>
       <c r="C13" s="25"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -2985,17 +2983,17 @@
       <c r="G13" s="32"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="84"/>
+    <row r="14" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="83"/>
       <c r="C14" s="30"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="83"/>
+    <row r="15" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="82"/>
       <c r="C15" s="25"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3003,17 +3001,17 @@
       <c r="G15" s="32"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="84"/>
+    <row r="16" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="83"/>
       <c r="C16" s="30"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="83"/>
+    <row r="17" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="82"/>
       <c r="C17" s="25"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -3021,17 +3019,17 @@
       <c r="G17" s="32"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="84"/>
+    <row r="18" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="83"/>
       <c r="C18" s="30"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="83"/>
+    <row r="19" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="82"/>
       <c r="C19" s="25"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -3039,17 +3037,17 @@
       <c r="G19" s="32"/>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="84"/>
+    <row r="20" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="83"/>
       <c r="C20" s="30"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="83"/>
+    <row r="21" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="82"/>
       <c r="C21" s="25"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -3057,17 +3055,17 @@
       <c r="G21" s="32"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="84"/>
+    <row r="22" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="83"/>
       <c r="C22" s="30"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="34"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="30"/>
     </row>
-    <row r="23" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="83"/>
+    <row r="23" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="82"/>
       <c r="C23" s="25"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -3075,17 +3073,17 @@
       <c r="G23" s="32"/>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="84"/>
+    <row r="24" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="83"/>
       <c r="C24" s="30"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="34"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="30"/>
     </row>
-    <row r="25" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="83"/>
+    <row r="25" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="82"/>
       <c r="C25" s="25"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -3093,17 +3091,17 @@
       <c r="G25" s="32"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="84"/>
+    <row r="26" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="83"/>
       <c r="C26" s="30"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="34"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="30"/>
     </row>
-    <row r="27" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="83"/>
+    <row r="27" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="82"/>
       <c r="C27" s="25"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -3111,17 +3109,17 @@
       <c r="G27" s="32"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="84"/>
+    <row r="28" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="83"/>
       <c r="C28" s="30"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="34"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="30"/>
     </row>
-    <row r="29" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="83"/>
+    <row r="29" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="82"/>
       <c r="C29" s="25"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -3129,17 +3127,17 @@
       <c r="G29" s="32"/>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="84"/>
+    <row r="30" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="83"/>
       <c r="C30" s="30"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="34"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="30"/>
     </row>
-    <row r="31" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="83"/>
+    <row r="31" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="82"/>
       <c r="C31" s="25"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -3147,17 +3145,17 @@
       <c r="G31" s="32"/>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="84"/>
+    <row r="32" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="83"/>
       <c r="C32" s="30"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="34"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="30"/>
     </row>
-    <row r="33" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="83"/>
+    <row r="33" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="82"/>
       <c r="C33" s="25"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -3165,23 +3163,23 @@
       <c r="G33" s="32"/>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="84"/>
+    <row r="34" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="83"/>
       <c r="C34" s="30"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="34"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="85"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
+    <row r="35" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="84"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3208,54 +3206,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="70" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="70" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="72" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="72" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="71" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="72" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="70" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="69" width="1.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="69" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="71" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="71" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="70" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="71" width="25.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="69" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="86"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-    </row>
-    <row r="3" s="47" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="88" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" s="46" customFormat="true" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="88" t="s">
+      <c r="C3" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="D3" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="E3" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="F3" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="87" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -3263,7 +3261,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -3271,15 +3269,15 @@
       <c r="F5" s="32"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -3287,15 +3285,15 @@
       <c r="F7" s="32"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="30"/>
     </row>
-    <row r="9" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3303,15 +3301,15 @@
       <c r="F9" s="32"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -3319,15 +3317,15 @@
       <c r="F11" s="32"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -3335,15 +3333,15 @@
       <c r="F13" s="32"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -3351,15 +3349,15 @@
       <c r="F15" s="32"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -3367,15 +3365,15 @@
       <c r="F17" s="32"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -3383,15 +3381,15 @@
       <c r="F19" s="32"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -3399,15 +3397,15 @@
       <c r="F21" s="32"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -3415,15 +3413,15 @@
       <c r="F23" s="32"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -3431,15 +3429,15 @@
       <c r="F25" s="32"/>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -3447,15 +3445,15 @@
       <c r="F27" s="32"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -3463,15 +3461,15 @@
       <c r="F29" s="32"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -3479,15 +3477,15 @@
       <c r="F31" s="32"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -3495,21 +3493,21 @@
       <c r="F33" s="32"/>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="26"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" s="79" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+    <row r="35" s="78" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
